--- a/2022/Symphony/February/21.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/21.02.2022/MC Bank Statement February-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="246">
   <si>
     <t>Date</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>Mobile Garden</t>
+  </si>
+  <si>
+    <t>22.02.2021</t>
   </si>
 </sst>
 </file>
@@ -3052,6 +3055,9 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="34" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3063,6 +3069,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3095,12 +3107,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3198,9 +3204,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3876,33 +3879,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="310"/>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
+      <c r="A1" s="311"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="311"/>
-      <c r="B2" s="308" t="s">
+      <c r="A2" s="312"/>
+      <c r="B2" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="311"/>
-      <c r="B3" s="309" t="s">
+      <c r="A3" s="312"/>
+      <c r="B3" s="310" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="311"/>
+      <c r="A4" s="312"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3920,7 +3923,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="311"/>
+      <c r="A5" s="312"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3938,7 +3941,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="311"/>
+      <c r="A6" s="312"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3950,7 +3953,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="311"/>
+      <c r="A7" s="312"/>
       <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
@@ -3969,7 +3972,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="311"/>
+      <c r="A8" s="312"/>
       <c r="B8" s="26" t="s">
         <v>61</v>
       </c>
@@ -3988,7 +3991,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="311"/>
+      <c r="A9" s="312"/>
       <c r="B9" s="26" t="s">
         <v>63</v>
       </c>
@@ -4007,7 +4010,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="311"/>
+      <c r="A10" s="312"/>
       <c r="B10" s="26" t="s">
         <v>64</v>
       </c>
@@ -4026,7 +4029,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="311"/>
+      <c r="A11" s="312"/>
       <c r="B11" s="26" t="s">
         <v>65</v>
       </c>
@@ -4045,7 +4048,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="311"/>
+      <c r="A12" s="312"/>
       <c r="B12" s="26" t="s">
         <v>66</v>
       </c>
@@ -4064,7 +4067,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="311"/>
+      <c r="A13" s="312"/>
       <c r="B13" s="26" t="s">
         <v>67</v>
       </c>
@@ -4083,7 +4086,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="311"/>
+      <c r="A14" s="312"/>
       <c r="B14" s="26" t="s">
         <v>68</v>
       </c>
@@ -4102,7 +4105,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="311"/>
+      <c r="A15" s="312"/>
       <c r="B15" s="26" t="s">
         <v>69</v>
       </c>
@@ -4121,7 +4124,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="311"/>
+      <c r="A16" s="312"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4134,7 +4137,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="311"/>
+      <c r="A17" s="312"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4147,7 +4150,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="311"/>
+      <c r="A18" s="312"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4160,7 +4163,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="311"/>
+      <c r="A19" s="312"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4173,7 +4176,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="311"/>
+      <c r="A20" s="312"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4186,7 +4189,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="311"/>
+      <c r="A21" s="312"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4199,7 +4202,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="311"/>
+      <c r="A22" s="312"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4212,7 +4215,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="311"/>
+      <c r="A23" s="312"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4225,7 +4228,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="311"/>
+      <c r="A24" s="312"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4238,7 +4241,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="311"/>
+      <c r="A25" s="312"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4251,7 +4254,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="311"/>
+      <c r="A26" s="312"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4264,7 +4267,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="311"/>
+      <c r="A27" s="312"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4277,7 +4280,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="311"/>
+      <c r="A28" s="312"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4290,7 +4293,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="311"/>
+      <c r="A29" s="312"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4303,7 +4306,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="311"/>
+      <c r="A30" s="312"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4316,7 +4319,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="311"/>
+      <c r="A31" s="312"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4329,7 +4332,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="311"/>
+      <c r="A32" s="312"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4342,7 +4345,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="311"/>
+      <c r="A33" s="312"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4355,7 +4358,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="311"/>
+      <c r="A34" s="312"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4368,7 +4371,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="311"/>
+      <c r="A35" s="312"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4381,7 +4384,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="311"/>
+      <c r="A36" s="312"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4394,7 +4397,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="311"/>
+      <c r="A37" s="312"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4407,7 +4410,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="311"/>
+      <c r="A38" s="312"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4420,7 +4423,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="311"/>
+      <c r="A39" s="312"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4433,7 +4436,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="311"/>
+      <c r="A40" s="312"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4446,7 +4449,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="311"/>
+      <c r="A41" s="312"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4459,7 +4462,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="311"/>
+      <c r="A42" s="312"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4472,7 +4475,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="311"/>
+      <c r="A43" s="312"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4485,7 +4488,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="311"/>
+      <c r="A44" s="312"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4498,7 +4501,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="311"/>
+      <c r="A45" s="312"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4511,7 +4514,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="311"/>
+      <c r="A46" s="312"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4524,7 +4527,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="311"/>
+      <c r="A47" s="312"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4537,7 +4540,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="311"/>
+      <c r="A48" s="312"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4550,7 +4553,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="311"/>
+      <c r="A49" s="312"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4563,7 +4566,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="311"/>
+      <c r="A50" s="312"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4576,7 +4579,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="311"/>
+      <c r="A51" s="312"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4589,7 +4592,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="311"/>
+      <c r="A52" s="312"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4602,7 +4605,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="311"/>
+      <c r="A53" s="312"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4615,7 +4618,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="311"/>
+      <c r="A54" s="312"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4628,7 +4631,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="311"/>
+      <c r="A55" s="312"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4640,7 +4643,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="311"/>
+      <c r="A56" s="312"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4652,7 +4655,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="311"/>
+      <c r="A57" s="312"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4664,7 +4667,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="311"/>
+      <c r="A58" s="312"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4676,7 +4679,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="311"/>
+      <c r="A59" s="312"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4688,7 +4691,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="311"/>
+      <c r="A60" s="312"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4700,7 +4703,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="311"/>
+      <c r="A61" s="312"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4712,7 +4715,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="311"/>
+      <c r="A62" s="312"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4724,7 +4727,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="311"/>
+      <c r="A63" s="312"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4736,7 +4739,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="311"/>
+      <c r="A64" s="312"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4748,7 +4751,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="311"/>
+      <c r="A65" s="312"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4760,7 +4763,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="311"/>
+      <c r="A66" s="312"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4772,7 +4775,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="311"/>
+      <c r="A67" s="312"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4784,7 +4787,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="311"/>
+      <c r="A68" s="312"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4796,7 +4799,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="311"/>
+      <c r="A69" s="312"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4808,7 +4811,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="311"/>
+      <c r="A70" s="312"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4820,7 +4823,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="311"/>
+      <c r="A71" s="312"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4832,7 +4835,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="311"/>
+      <c r="A72" s="312"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4844,7 +4847,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="311"/>
+      <c r="A73" s="312"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4856,7 +4859,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="311"/>
+      <c r="A74" s="312"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4868,7 +4871,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="311"/>
+      <c r="A75" s="312"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4880,7 +4883,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="311"/>
+      <c r="A76" s="312"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4892,7 +4895,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="311"/>
+      <c r="A77" s="312"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4904,7 +4907,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="311"/>
+      <c r="A78" s="312"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4916,7 +4919,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="311"/>
+      <c r="A79" s="312"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4928,7 +4931,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="311"/>
+      <c r="A80" s="312"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4940,7 +4943,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="311"/>
+      <c r="A81" s="312"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4952,7 +4955,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="311"/>
+      <c r="A82" s="312"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4964,7 +4967,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="311"/>
+      <c r="A83" s="312"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5021,33 +5024,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="310"/>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
+      <c r="A1" s="311"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="311"/>
-      <c r="B2" s="308" t="s">
+      <c r="A2" s="312"/>
+      <c r="B2" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="311"/>
-      <c r="B3" s="309" t="s">
+      <c r="A3" s="312"/>
+      <c r="B3" s="310" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="311"/>
+      <c r="A4" s="312"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5065,7 +5068,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="311"/>
+      <c r="A5" s="312"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5083,7 +5086,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="311"/>
+      <c r="A6" s="312"/>
       <c r="B6" s="26" t="s">
         <v>201</v>
       </c>
@@ -5101,7 +5104,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="311"/>
+      <c r="A7" s="312"/>
       <c r="B7" s="26" t="s">
         <v>202</v>
       </c>
@@ -5119,7 +5122,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="311"/>
+      <c r="A8" s="312"/>
       <c r="B8" s="26" t="s">
         <v>204</v>
       </c>
@@ -5137,7 +5140,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="311"/>
+      <c r="A9" s="312"/>
       <c r="B9" s="26" t="s">
         <v>207</v>
       </c>
@@ -5155,7 +5158,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="311"/>
+      <c r="A10" s="312"/>
       <c r="B10" s="26" t="s">
         <v>208</v>
       </c>
@@ -5173,7 +5176,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="311"/>
+      <c r="A11" s="312"/>
       <c r="B11" s="26" t="s">
         <v>210</v>
       </c>
@@ -5191,7 +5194,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="311"/>
+      <c r="A12" s="312"/>
       <c r="B12" s="26" t="s">
         <v>211</v>
       </c>
@@ -5209,7 +5212,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="311"/>
+      <c r="A13" s="312"/>
       <c r="B13" s="26" t="s">
         <v>213</v>
       </c>
@@ -5227,7 +5230,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="311"/>
+      <c r="A14" s="312"/>
       <c r="B14" s="26" t="s">
         <v>214</v>
       </c>
@@ -5245,7 +5248,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="311"/>
+      <c r="A15" s="312"/>
       <c r="B15" s="26" t="s">
         <v>215</v>
       </c>
@@ -5263,7 +5266,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="311"/>
+      <c r="A16" s="312"/>
       <c r="B16" s="26" t="s">
         <v>216</v>
       </c>
@@ -5281,7 +5284,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="311"/>
+      <c r="A17" s="312"/>
       <c r="B17" s="26" t="s">
         <v>226</v>
       </c>
@@ -5299,7 +5302,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="311"/>
+      <c r="A18" s="312"/>
       <c r="B18" s="26" t="s">
         <v>228</v>
       </c>
@@ -5317,7 +5320,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="311"/>
+      <c r="A19" s="312"/>
       <c r="B19" s="26" t="s">
         <v>229</v>
       </c>
@@ -5335,7 +5338,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="311"/>
+      <c r="A20" s="312"/>
       <c r="B20" s="26" t="s">
         <v>231</v>
       </c>
@@ -5353,7 +5356,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="311"/>
+      <c r="A21" s="312"/>
       <c r="B21" s="26" t="s">
         <v>233</v>
       </c>
@@ -5371,7 +5374,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="311"/>
+      <c r="A22" s="312"/>
       <c r="B22" s="26" t="s">
         <v>237</v>
       </c>
@@ -5389,7 +5392,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="311"/>
+      <c r="A23" s="312"/>
       <c r="B23" s="26"/>
       <c r="C23" s="267"/>
       <c r="D23" s="267"/>
@@ -5401,7 +5404,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="311"/>
+      <c r="A24" s="312"/>
       <c r="B24" s="26"/>
       <c r="C24" s="267"/>
       <c r="D24" s="267"/>
@@ -5413,7 +5416,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="311"/>
+      <c r="A25" s="312"/>
       <c r="B25" s="26"/>
       <c r="C25" s="267"/>
       <c r="D25" s="267"/>
@@ -5425,7 +5428,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="311"/>
+      <c r="A26" s="312"/>
       <c r="B26" s="26"/>
       <c r="C26" s="267"/>
       <c r="D26" s="267"/>
@@ -5437,7 +5440,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="311"/>
+      <c r="A27" s="312"/>
       <c r="B27" s="26"/>
       <c r="C27" s="267"/>
       <c r="D27" s="267"/>
@@ -5449,7 +5452,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="311"/>
+      <c r="A28" s="312"/>
       <c r="B28" s="26"/>
       <c r="C28" s="267"/>
       <c r="D28" s="267"/>
@@ -5461,7 +5464,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="311"/>
+      <c r="A29" s="312"/>
       <c r="B29" s="26"/>
       <c r="C29" s="267"/>
       <c r="D29" s="267"/>
@@ -5473,7 +5476,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="311"/>
+      <c r="A30" s="312"/>
       <c r="B30" s="26"/>
       <c r="C30" s="267"/>
       <c r="D30" s="267"/>
@@ -5485,7 +5488,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="311"/>
+      <c r="A31" s="312"/>
       <c r="B31" s="26"/>
       <c r="C31" s="267"/>
       <c r="D31" s="267"/>
@@ -5497,7 +5500,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="311"/>
+      <c r="A32" s="312"/>
       <c r="B32" s="26"/>
       <c r="C32" s="267"/>
       <c r="D32" s="267"/>
@@ -5509,7 +5512,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="311"/>
+      <c r="A33" s="312"/>
       <c r="B33" s="26"/>
       <c r="C33" s="267"/>
       <c r="D33" s="270"/>
@@ -5521,7 +5524,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="311"/>
+      <c r="A34" s="312"/>
       <c r="B34" s="26"/>
       <c r="C34" s="267"/>
       <c r="D34" s="267"/>
@@ -5533,7 +5536,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="311"/>
+      <c r="A35" s="312"/>
       <c r="B35" s="26"/>
       <c r="C35" s="267"/>
       <c r="D35" s="267"/>
@@ -5545,7 +5548,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="311"/>
+      <c r="A36" s="312"/>
       <c r="B36" s="26"/>
       <c r="C36" s="267"/>
       <c r="D36" s="267"/>
@@ -5557,7 +5560,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="311"/>
+      <c r="A37" s="312"/>
       <c r="B37" s="26"/>
       <c r="C37" s="267"/>
       <c r="D37" s="267"/>
@@ -5569,7 +5572,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="311"/>
+      <c r="A38" s="312"/>
       <c r="B38" s="26"/>
       <c r="C38" s="267"/>
       <c r="D38" s="267"/>
@@ -5581,7 +5584,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="311"/>
+      <c r="A39" s="312"/>
       <c r="B39" s="26"/>
       <c r="C39" s="267"/>
       <c r="D39" s="267"/>
@@ -5593,7 +5596,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="311"/>
+      <c r="A40" s="312"/>
       <c r="B40" s="26"/>
       <c r="C40" s="267"/>
       <c r="D40" s="267"/>
@@ -5605,7 +5608,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="311"/>
+      <c r="A41" s="312"/>
       <c r="B41" s="26"/>
       <c r="C41" s="267"/>
       <c r="D41" s="267"/>
@@ -5617,7 +5620,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="311"/>
+      <c r="A42" s="312"/>
       <c r="B42" s="26"/>
       <c r="C42" s="267"/>
       <c r="D42" s="267"/>
@@ -5629,7 +5632,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="311"/>
+      <c r="A43" s="312"/>
       <c r="B43" s="26"/>
       <c r="C43" s="267"/>
       <c r="D43" s="267"/>
@@ -5641,7 +5644,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="311"/>
+      <c r="A44" s="312"/>
       <c r="B44" s="26"/>
       <c r="C44" s="267"/>
       <c r="D44" s="267"/>
@@ -5653,7 +5656,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="311"/>
+      <c r="A45" s="312"/>
       <c r="B45" s="26"/>
       <c r="C45" s="267"/>
       <c r="D45" s="267"/>
@@ -5665,7 +5668,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="311"/>
+      <c r="A46" s="312"/>
       <c r="B46" s="26"/>
       <c r="C46" s="267"/>
       <c r="D46" s="267"/>
@@ -5677,7 +5680,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="311"/>
+      <c r="A47" s="312"/>
       <c r="B47" s="26"/>
       <c r="C47" s="267"/>
       <c r="D47" s="267"/>
@@ -5689,7 +5692,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="311"/>
+      <c r="A48" s="312"/>
       <c r="B48" s="26"/>
       <c r="C48" s="267"/>
       <c r="D48" s="267"/>
@@ -5701,7 +5704,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="311"/>
+      <c r="A49" s="312"/>
       <c r="B49" s="26"/>
       <c r="C49" s="267"/>
       <c r="D49" s="267"/>
@@ -5713,7 +5716,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="311"/>
+      <c r="A50" s="312"/>
       <c r="B50" s="26"/>
       <c r="C50" s="267"/>
       <c r="D50" s="267"/>
@@ -5725,7 +5728,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="311"/>
+      <c r="A51" s="312"/>
       <c r="B51" s="26"/>
       <c r="C51" s="267"/>
       <c r="D51" s="267"/>
@@ -5737,7 +5740,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="311"/>
+      <c r="A52" s="312"/>
       <c r="B52" s="26"/>
       <c r="C52" s="267"/>
       <c r="D52" s="267"/>
@@ -5749,7 +5752,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="311"/>
+      <c r="A53" s="312"/>
       <c r="B53" s="26"/>
       <c r="C53" s="267"/>
       <c r="D53" s="267"/>
@@ -5761,7 +5764,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="311"/>
+      <c r="A54" s="312"/>
       <c r="B54" s="26"/>
       <c r="C54" s="267"/>
       <c r="D54" s="267"/>
@@ -5773,7 +5776,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="311"/>
+      <c r="A55" s="312"/>
       <c r="B55" s="26"/>
       <c r="C55" s="267"/>
       <c r="D55" s="267"/>
@@ -5784,7 +5787,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="311"/>
+      <c r="A56" s="312"/>
       <c r="B56" s="26"/>
       <c r="C56" s="267"/>
       <c r="D56" s="267"/>
@@ -5795,7 +5798,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="311"/>
+      <c r="A57" s="312"/>
       <c r="B57" s="26"/>
       <c r="C57" s="267"/>
       <c r="D57" s="267"/>
@@ -5806,7 +5809,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="311"/>
+      <c r="A58" s="312"/>
       <c r="B58" s="26"/>
       <c r="C58" s="267"/>
       <c r="D58" s="267"/>
@@ -5817,7 +5820,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="311"/>
+      <c r="A59" s="312"/>
       <c r="B59" s="26"/>
       <c r="C59" s="267"/>
       <c r="D59" s="267"/>
@@ -5828,7 +5831,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="311"/>
+      <c r="A60" s="312"/>
       <c r="B60" s="26"/>
       <c r="C60" s="267"/>
       <c r="D60" s="267"/>
@@ -5839,7 +5842,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="311"/>
+      <c r="A61" s="312"/>
       <c r="B61" s="26"/>
       <c r="C61" s="267"/>
       <c r="D61" s="267"/>
@@ -5850,7 +5853,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="311"/>
+      <c r="A62" s="312"/>
       <c r="B62" s="26"/>
       <c r="C62" s="267"/>
       <c r="D62" s="267"/>
@@ -5861,7 +5864,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="311"/>
+      <c r="A63" s="312"/>
       <c r="B63" s="26"/>
       <c r="C63" s="267"/>
       <c r="D63" s="267"/>
@@ -5872,7 +5875,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="311"/>
+      <c r="A64" s="312"/>
       <c r="B64" s="26"/>
       <c r="C64" s="267"/>
       <c r="D64" s="267"/>
@@ -5883,7 +5886,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="311"/>
+      <c r="A65" s="312"/>
       <c r="B65" s="26"/>
       <c r="C65" s="267"/>
       <c r="D65" s="267"/>
@@ -5894,7 +5897,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="311"/>
+      <c r="A66" s="312"/>
       <c r="B66" s="26"/>
       <c r="C66" s="267"/>
       <c r="D66" s="267"/>
@@ -5905,7 +5908,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="311"/>
+      <c r="A67" s="312"/>
       <c r="B67" s="26"/>
       <c r="C67" s="267"/>
       <c r="D67" s="267"/>
@@ -5916,7 +5919,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="311"/>
+      <c r="A68" s="312"/>
       <c r="B68" s="26"/>
       <c r="C68" s="267"/>
       <c r="D68" s="267"/>
@@ -5927,7 +5930,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="311"/>
+      <c r="A69" s="312"/>
       <c r="B69" s="26"/>
       <c r="C69" s="267"/>
       <c r="D69" s="267"/>
@@ -5938,7 +5941,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="311"/>
+      <c r="A70" s="312"/>
       <c r="B70" s="26"/>
       <c r="C70" s="267"/>
       <c r="D70" s="267"/>
@@ -5949,7 +5952,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="311"/>
+      <c r="A71" s="312"/>
       <c r="B71" s="26"/>
       <c r="C71" s="267"/>
       <c r="D71" s="267"/>
@@ -5960,7 +5963,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="311"/>
+      <c r="A72" s="312"/>
       <c r="B72" s="26"/>
       <c r="C72" s="267"/>
       <c r="D72" s="267"/>
@@ -5971,7 +5974,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="311"/>
+      <c r="A73" s="312"/>
       <c r="B73" s="26"/>
       <c r="C73" s="267"/>
       <c r="D73" s="267"/>
@@ -5982,7 +5985,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="311"/>
+      <c r="A74" s="312"/>
       <c r="B74" s="26"/>
       <c r="C74" s="267"/>
       <c r="D74" s="267"/>
@@ -5993,7 +5996,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="311"/>
+      <c r="A75" s="312"/>
       <c r="B75" s="26"/>
       <c r="C75" s="267"/>
       <c r="D75" s="267"/>
@@ -6004,7 +6007,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="311"/>
+      <c r="A76" s="312"/>
       <c r="B76" s="26"/>
       <c r="C76" s="267"/>
       <c r="D76" s="267"/>
@@ -6015,7 +6018,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="311"/>
+      <c r="A77" s="312"/>
       <c r="B77" s="26"/>
       <c r="C77" s="267"/>
       <c r="D77" s="267"/>
@@ -6026,7 +6029,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="311"/>
+      <c r="A78" s="312"/>
       <c r="B78" s="26"/>
       <c r="C78" s="267"/>
       <c r="D78" s="267"/>
@@ -6037,7 +6040,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="311"/>
+      <c r="A79" s="312"/>
       <c r="B79" s="26"/>
       <c r="C79" s="267"/>
       <c r="D79" s="267"/>
@@ -6049,7 +6052,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="311"/>
+      <c r="A80" s="312"/>
       <c r="B80" s="26"/>
       <c r="C80" s="267"/>
       <c r="D80" s="267"/>
@@ -6061,7 +6064,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="311"/>
+      <c r="A81" s="312"/>
       <c r="B81" s="26"/>
       <c r="C81" s="267"/>
       <c r="D81" s="267"/>
@@ -6073,7 +6076,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="311"/>
+      <c r="A82" s="312"/>
       <c r="B82" s="26"/>
       <c r="C82" s="267"/>
       <c r="D82" s="267"/>
@@ -6085,7 +6088,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="311"/>
+      <c r="A83" s="312"/>
       <c r="B83" s="31"/>
       <c r="C83" s="269">
         <f>SUM(C5:C72)</f>
@@ -6143,67 +6146,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="314"/>
-      <c r="P1" s="314"/>
-      <c r="Q1" s="314"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="317"/>
+      <c r="P1" s="317"/>
+      <c r="Q1" s="317"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="318"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="319" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="317"/>
-      <c r="N3" s="317"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="317"/>
-      <c r="Q3" s="318"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="320"/>
+      <c r="N3" s="320"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="320"/>
+      <c r="Q3" s="321"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6212,50 +6215,50 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="319" t="s">
+      <c r="A4" s="322" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="321" t="s">
+      <c r="B4" s="324" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="323" t="s">
+      <c r="C4" s="313" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="323" t="s">
+      <c r="D4" s="313" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="323" t="s">
+      <c r="E4" s="313" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323" t="s">
+      <c r="F4" s="313"/>
+      <c r="G4" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="323" t="s">
+      <c r="H4" s="313" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="323" t="s">
+      <c r="I4" s="313" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="323" t="s">
+      <c r="J4" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="323" t="s">
+      <c r="K4" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="323" t="s">
+      <c r="L4" s="313" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="323" t="s">
+      <c r="M4" s="313" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="323" t="s">
+      <c r="N4" s="313" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="312" t="s">
+      <c r="O4" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="325" t="s">
+      <c r="P4" s="326" t="s">
         <v>72</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6268,22 +6271,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="320"/>
-      <c r="B5" s="322"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="324"/>
-      <c r="O5" s="313"/>
-      <c r="P5" s="326"/>
+      <c r="A5" s="323"/>
+      <c r="B5" s="325"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314"/>
+      <c r="O5" s="316"/>
+      <c r="P5" s="327"/>
       <c r="Q5" s="136" t="s">
         <v>47</v>
       </c>
@@ -9416,6 +9419,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9432,9 +9438,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9448,8 +9451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9476,14 +9479,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="333"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="334"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9577,14 +9580,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="335" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="336"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="337"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9678,14 +9681,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="338"/>
-      <c r="C3" s="338"/>
-      <c r="D3" s="338"/>
-      <c r="E3" s="338"/>
-      <c r="F3" s="339"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="340"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -13108,12 +13111,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="329" t="s">
+      <c r="B35" s="330" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="329"/>
-      <c r="D35" s="329"/>
-      <c r="E35" s="329"/>
+      <c r="C35" s="330"/>
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -13994,10 +13997,10 @@
         <v>216</v>
       </c>
       <c r="F43" s="143"/>
-      <c r="G43" s="330"/>
-      <c r="H43" s="330"/>
-      <c r="I43" s="330"/>
-      <c r="J43" s="330"/>
+      <c r="G43" s="331"/>
+      <c r="H43" s="331"/>
+      <c r="I43" s="331"/>
+      <c r="J43" s="331"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -15048,7 +15051,7 @@
         <v>33560</v>
       </c>
       <c r="E52" s="188" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="147"/>
@@ -22559,11 +22562,11 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="327" t="s">
+      <c r="A119" s="328" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="328"/>
-      <c r="C119" s="340"/>
+      <c r="B119" s="329"/>
+      <c r="C119" s="341"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
         <v>2916775</v>
@@ -22766,11 +22769,11 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="327" t="s">
+      <c r="A121" s="328" t="s">
         <v>34</v>
       </c>
-      <c r="B121" s="328"/>
-      <c r="C121" s="328"/>
+      <c r="B121" s="329"/>
+      <c r="C121" s="329"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
         <v>2916775</v>
@@ -34005,7 +34008,7 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -34024,35 +34027,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="342" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="343"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="344"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="351" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="352"/>
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="353"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="345" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="347"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34075,15 +34078,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="354" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="354"/>
+      <c r="B4" s="355"/>
       <c r="C4" s="282"/>
-      <c r="D4" s="355" t="s">
+      <c r="D4" s="356" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="356"/>
+      <c r="E4" s="357"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -34497,13 +34500,13 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="22.5">
-      <c r="A17" s="347" t="s">
+      <c r="A17" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="348"/>
-      <c r="C17" s="348"/>
-      <c r="D17" s="348"/>
-      <c r="E17" s="349"/>
+      <c r="B17" s="349"/>
+      <c r="C17" s="349"/>
+      <c r="D17" s="349"/>
+      <c r="E17" s="350"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -34536,7 +34539,7 @@
       <c r="D18" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="357">
+      <c r="E18" s="308">
         <v>769890</v>
       </c>
       <c r="F18" s="5"/>
